--- a/packages/sync-server/__tests__/importers/programs-vitals-delete-questions.xlsx
+++ b/packages/sync-server/__tests__/importers/programs-vitals-delete-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biao/Documents/GitHub/tamanu/packages/sync-server/__tests__/importers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2631332F-3A4A-EC4E-94AD-7DA797C5C0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C7BB4E-F3A0-6348-9AF4-E172E62E4746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -51,45 +51,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>newScreen</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>optionLabels</t>
-  </si>
-  <si>
-    <t>optionColors</t>
-  </si>
-  <si>
-    <t>visibilityCriteria</t>
-  </si>
-  <si>
-    <t>validationCriteria</t>
-  </si>
-  <si>
-    <t>visualisationConfig</t>
-  </si>
-  <si>
-    <t>optionSet</t>
-  </si>
-  <si>
-    <t>questionLabel</t>
-  </si>
-  <si>
-    <t>detailLabel</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>config</t>
-  </si>
-  <si>
     <t>visibilityStatus</t>
   </si>
   <si>
@@ -117,12 +78,6 @@
     <t>Height (cm)</t>
   </si>
   <si>
-    <t>{"min": 0, "max": 250}</t>
-  </si>
-  <si>
-    <t>{"unit": "cm"}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsWeight</t>
   </si>
   <si>
@@ -132,27 +87,15 @@
     <t>Weight (kg)</t>
   </si>
   <si>
-    <t>{"unit": "kg"}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsBMI</t>
   </si>
   <si>
     <t>PatientVitalsBMI</t>
   </si>
   <si>
-    <t>CalculatedQuestion</t>
-  </si>
-  <si>
     <t>BMI (kg/m2)</t>
   </si>
   <si>
-    <t>(PatientVitalsWeight/PatientVitalsHeight/PatientVitalsHeight)*10000</t>
-  </si>
-  <si>
-    <t>{"rounding": 1}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsSBP</t>
   </si>
   <si>
@@ -162,12 +105,6 @@
     <t>SBP (mmHg)</t>
   </si>
   <si>
-    <t>{"min": 0, "max": 300, "normalRange": {"min": 90, "max": 120}}</t>
-  </si>
-  <si>
-    <t>{"yAxis":{"graphRange":{"min":40,"max":240},"interval":10}}</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -180,9 +117,6 @@
     <t>DBP (mmHg)</t>
   </si>
   <si>
-    <t>{"min": 0, "max": 150, "normalRange": {"min": 60, "max": 80}}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsMAP</t>
   </si>
   <si>
@@ -192,9 +126,6 @@
     <t>MAP</t>
   </si>
   <si>
-    <t>(PatientVitalsDBP + 1/3(PatientVitalsSBP – PatientVitalsDBP))</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsHeartRate</t>
   </si>
   <si>
@@ -204,12 +135,6 @@
     <t>Heart rate (bpm)</t>
   </si>
   <si>
-    <t>{"min": 0, "max": 300, "normalRange": [{"min": 120, "max": 185, "ageUnit": "months", "ageMin": 0, "ageMax": 3},{"min": 105, "max": 280, "ageUnit": "months", "ageMin": 3, "ageMax": 12},{"min": 80, "max": 180, "ageUnit": "years", "ageMin": 1, "ageMax": 4},{"min": 60, "max": 140, "ageUnit": "years", "ageMin": 5, "ageMax": 11},{"min": 60, "max": 120, "ageUnit": "years", "ageMin": 12, "ageMax": 17},{"min": 60, "max": 115, "ageUnit": "years", "ageMin": 17}]}</t>
-  </si>
-  <si>
-    <t>{"yAxis":{"graphRange":{"min":30,"max":300}, "interval":10}}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsRespiratoryRate</t>
   </si>
   <si>
@@ -219,12 +144,6 @@
     <t>Respiratory rate (bpm)</t>
   </si>
   <si>
-    <t>{"min": 1, "max": 70, "normalRange": {"min": 12, "max": 20}}</t>
-  </si>
-  <si>
-    <t>{"yAxis":{"graphRange":{"min":0,"max":40},"interval":5}}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsTemperature</t>
   </si>
   <si>
@@ -234,15 +153,6 @@
     <t>Temperature (°C)</t>
   </si>
   <si>
-    <t>{"min": 32, "max": 44, "normalRange": {"min": 35.5, "max": 37.5}}</t>
-  </si>
-  <si>
-    <t>{"yAxis":{"graphRange":{"min":33.5,"max":41.5},"interval":0.5}}</t>
-  </si>
-  <si>
-    <t>{"unit": "°C", "rounding": 1}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsSPO2</t>
   </si>
   <si>
@@ -252,15 +162,6 @@
     <t>SpO2 (%)</t>
   </si>
   <si>
-    <t>{"min": 0, "max": 100, "normalRange": {"min": 97, "max": 100}}</t>
-  </si>
-  <si>
-    <t>{"yAxis":{"graphRange":{"min":80,"max":100}, "interval":5}}</t>
-  </si>
-  <si>
-    <t>{"unit": "%"}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsAVPU</t>
   </si>
   <si>
@@ -273,9 +174,6 @@
     <t>AVPU</t>
   </si>
   <si>
-    <t>{"alert": "Alert", "verbal": "Verbal", "pain": "Pain", "unresponsive": "Unresponsive"}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsGCS</t>
   </si>
   <si>
@@ -285,9 +183,6 @@
     <t>GCS</t>
   </si>
   <si>
-    <t>{"min": 3, "max": 15}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsPainScale</t>
   </si>
   <si>
@@ -297,9 +192,6 @@
     <t>Pain Scale</t>
   </si>
   <si>
-    <t>{"min": 0, "max": 10}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsCBG</t>
   </si>
   <si>
@@ -309,9 +201,6 @@
     <t>CBG</t>
   </si>
   <si>
-    <t>{"min": 0, "max": 34}</t>
-  </si>
-  <si>
     <t>pde-PatientVitalsCapillaryRefillTime</t>
   </si>
   <si>
@@ -319,9 +208,6 @@
   </si>
   <si>
     <t>Capillary Refill Time</t>
-  </si>
-  <si>
-    <t>{"min": 1, "max": 4}</t>
   </si>
   <si>
     <t>programName</t>
@@ -461,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -474,9 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -813,58 +696,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>97</v>
+      <c r="A1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="8"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>113</v>
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>100</v>
+      <c r="A3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>44</v>
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -874,85 +757,85 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>102</v>
+      <c r="C6" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="8" t="b">
+      <c r="A7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1953,10 +1836,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1964,18 +1847,10 @@
     <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="107.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="61.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="78.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,444 +1866,304 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="1"/>
-      <c r="R3" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="1" t="s">
+    </row>
+    <row r="13" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="Q8" s="1" t="s">
+    </row>
+    <row r="16" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/packages/sync-server/__tests__/importers/programs-vitals-delete-questions.xlsx
+++ b/packages/sync-server/__tests__/importers/programs-vitals-delete-questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biao/Documents/GitHub/tamanu/packages/sync-server/__tests__/importers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C7BB4E-F3A0-6348-9AF4-E172E62E4746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECB93BF-F098-8E41-AFB7-E13C271AF112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>test-vitals</t>
+  </si>
+  <si>
+    <t>current</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -357,9 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -696,10 +696,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="2"/>
@@ -707,13 +707,13 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="7"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="2"/>
@@ -721,13 +721,13 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="7"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="2"/>
@@ -735,19 +735,19 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -757,16 +757,16 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -781,61 +781,61 @@
       <c r="G6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="7" t="b">
+      <c r="G7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1886,6 +1886,9 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="3" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1903,6 +1906,9 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1920,6 +1926,9 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1937,6 +1946,9 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1954,8 +1966,8 @@
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>23</v>
+      <c r="F6" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1974,6 +1986,9 @@
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1991,6 +2006,9 @@
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2008,6 +2026,9 @@
       <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -2025,6 +2046,9 @@
       <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -2042,6 +2066,9 @@
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="F11" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -2059,6 +2086,9 @@
       <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="F12" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -2076,6 +2106,9 @@
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="F13" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -2093,6 +2126,9 @@
       <c r="E14" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="F14" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -2110,6 +2146,9 @@
       <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="F15" s="3" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -2127,8 +2166,11 @@
       <c r="E16" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -2144,23 +2186,26 @@
       <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:5" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
+      <c r="F17" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
